--- a/data/trans_dic/P25A$otro-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,3</t>
+          <t>0,0; 9,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,42</t>
+          <t>0,0; 8,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 37,63</t>
+          <t>17,83; 36,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 52,87</t>
+          <t>8,03; 51,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,85</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,98; 49,22</t>
+          <t>21,72; 48,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 18,51</t>
+          <t>3,19; 18,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,88</t>
+          <t>0,88; 8,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,13; 38,69</t>
+          <t>21,96; 39,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 6,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,06</t>
+          <t>0,0; 6,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,39 +811,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 39,95</t>
+          <t>7,95; 39,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,54</t>
+          <t>0,0; 8,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,29</t>
+          <t>0,0; 17,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,15</t>
+          <t>2,19; 10,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,57</t>
+          <t>0,54; 5,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 13,4</t>
+          <t>1,61; 13,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,84</t>
+          <t>0,0; 5,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 8,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,67</t>
+          <t>0,0; 36,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,62</t>
+          <t>0,0; 14,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,29</t>
+          <t>0,0; 16,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 14,03</t>
+          <t>2,45; 13,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,2</t>
+          <t>0,0; 7,06</t>
         </is>
       </c>
     </row>
@@ -1015,22 +1016,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,86</t>
+          <t>0,0; 12,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 12,59</t>
+          <t>1,88; 13,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 33,5</t>
+          <t>16,5; 34,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,83</t>
+          <t>0,0; 14,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,22 +1041,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 39,88</t>
+          <t>13,55; 41,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,15</t>
+          <t>0,85; 9,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 8,83</t>
+          <t>0,72; 9,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 32,61</t>
+          <t>17,7; 32,46</t>
         </is>
       </c>
     </row>
@@ -1140,39 +1141,39 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,14</t>
+          <t>0,0; 22,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,25</t>
+          <t>0,0; 24,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,8</t>
+          <t>0,0; 32,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,7</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,78</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,91</t>
+          <t>0,0; 14,98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,85</t>
+          <t>0,0; 12,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 6,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 19,48</t>
+          <t>2,17; 19,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,97</t>
+          <t>0,0; 27,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,88</t>
+          <t>0,0; 36,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 39,73</t>
+          <t>5,03; 40,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,31</t>
+          <t>1,34; 11,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,06</t>
+          <t>0,92; 10,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,47; 21,3</t>
+          <t>4,53; 20,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,36</t>
+          <t>0,0; 6,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 12,73</t>
+          <t>3,29; 12,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 31,43</t>
+          <t>5,9; 33,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 16,13</t>
+          <t>4,15; 15,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 16,7</t>
+          <t>3,4; 14,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,95</t>
+          <t>2,29; 11,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,2</t>
+          <t>1,56; 6,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,39</t>
+          <t>4,22; 11,73</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,53</t>
+          <t>0,79; 6,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,97</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 15,91</t>
+          <t>2,63; 15,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>0,0; 9,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,14</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,83</t>
+          <t>1,42; 6,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,11</t>
+          <t>1,08; 6,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,7</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,76</t>
+          <t>1,35; 3,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,35</t>
+          <t>1,3; 3,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,08</t>
+          <t>7,25; 12,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,37</t>
+          <t>7,25; 15,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,53</t>
+          <t>2,87; 7,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,99</t>
+          <t>9,85; 17,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,37</t>
+          <t>3,48; 6,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,02</t>
+          <t>2,13; 4,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,7</t>
+          <t>8,67; 12,91</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21510</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17896</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39406</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4425</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6814</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14076; 28757</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1611; 10298</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6615</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11290; 25254</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2125; 12409</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1066; 10372</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28755; 51074</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2953</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5163</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7242</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7290</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7479</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2056; 10239</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5068</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4999</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3064; 14334</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>973; 9127</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4567</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3179</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5113</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1026; 8491</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4860</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5039</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5176</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4688</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4549</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1912; 10631</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7158</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6327</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21260</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11425</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4361</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32685</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9124</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1981; 13739</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14367; 30342</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5583</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1891</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6054; 18416</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>967; 10911</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1089; 13787</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23322; 42763</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2142</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1834</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6578</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6540</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5550</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7276</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6642</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7314</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3818</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6550</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6832</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5223</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>962; 8739</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5114</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8021</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>846; 6885</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>961; 8044</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>970; 10862</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2769; 12304</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1686</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5314</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8005</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6867</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6999</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8902</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5979</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4058</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4182; 16354</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1941; 11119</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3808; 14402</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2873; 12275</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2868; 14215</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3957; 15785</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8918; 24798</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4087</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6621</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1032; 8721</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5213</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1899; 11248</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6441</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5339</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3002; 13808</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2123; 12772</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6612</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>57326</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>27487</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>41800</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>100586</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>8406; 24022</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>10634; 29115</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>43893; 73216</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>18170; 38337</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>11097; 28684</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>33090; 57877</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>30420; 56623</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>25667; 51431</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>81630; 121487</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$otro-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Provincia-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1670,7 +1670,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
